--- a/2022/Symphony/February/03.02.2022/MC Bank Statement February-2022.xlsx
+++ b/2022/Symphony/February/03.02.2022/MC Bank Statement February-2022.xlsx
@@ -2904,12 +2904,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2941,6 +2935,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="37" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5877,67 +5877,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="313" t="s">
+      <c r="A1" s="311" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="313"/>
-      <c r="C1" s="313"/>
-      <c r="D1" s="313"/>
-      <c r="E1" s="313"/>
-      <c r="F1" s="313"/>
-      <c r="G1" s="313"/>
-      <c r="H1" s="313"/>
-      <c r="I1" s="313"/>
-      <c r="J1" s="313"/>
-      <c r="K1" s="313"/>
-      <c r="L1" s="313"/>
-      <c r="M1" s="313"/>
-      <c r="N1" s="313"/>
-      <c r="O1" s="313"/>
-      <c r="P1" s="313"/>
-      <c r="Q1" s="313"/>
+      <c r="B1" s="311"/>
+      <c r="C1" s="311"/>
+      <c r="D1" s="311"/>
+      <c r="E1" s="311"/>
+      <c r="F1" s="311"/>
+      <c r="G1" s="311"/>
+      <c r="H1" s="311"/>
+      <c r="I1" s="311"/>
+      <c r="J1" s="311"/>
+      <c r="K1" s="311"/>
+      <c r="L1" s="311"/>
+      <c r="M1" s="311"/>
+      <c r="N1" s="311"/>
+      <c r="O1" s="311"/>
+      <c r="P1" s="311"/>
+      <c r="Q1" s="311"/>
     </row>
     <row r="2" spans="1:24" s="72" customFormat="1" ht="18">
-      <c r="A2" s="314" t="s">
+      <c r="A2" s="312" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="314"/>
-      <c r="C2" s="314"/>
-      <c r="D2" s="314"/>
-      <c r="E2" s="314"/>
-      <c r="F2" s="314"/>
-      <c r="G2" s="314"/>
-      <c r="H2" s="314"/>
-      <c r="I2" s="314"/>
-      <c r="J2" s="314"/>
-      <c r="K2" s="314"/>
-      <c r="L2" s="314"/>
-      <c r="M2" s="314"/>
-      <c r="N2" s="314"/>
-      <c r="O2" s="314"/>
-      <c r="P2" s="314"/>
-      <c r="Q2" s="314"/>
+      <c r="B2" s="312"/>
+      <c r="C2" s="312"/>
+      <c r="D2" s="312"/>
+      <c r="E2" s="312"/>
+      <c r="F2" s="312"/>
+      <c r="G2" s="312"/>
+      <c r="H2" s="312"/>
+      <c r="I2" s="312"/>
+      <c r="J2" s="312"/>
+      <c r="K2" s="312"/>
+      <c r="L2" s="312"/>
+      <c r="M2" s="312"/>
+      <c r="N2" s="312"/>
+      <c r="O2" s="312"/>
+      <c r="P2" s="312"/>
+      <c r="Q2" s="312"/>
     </row>
     <row r="3" spans="1:24" s="73" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="315" t="s">
+      <c r="A3" s="313" t="s">
         <v>198</v>
       </c>
-      <c r="B3" s="316"/>
-      <c r="C3" s="316"/>
-      <c r="D3" s="316"/>
-      <c r="E3" s="316"/>
-      <c r="F3" s="316"/>
-      <c r="G3" s="316"/>
-      <c r="H3" s="316"/>
-      <c r="I3" s="316"/>
-      <c r="J3" s="316"/>
-      <c r="K3" s="316"/>
-      <c r="L3" s="316"/>
-      <c r="M3" s="316"/>
-      <c r="N3" s="316"/>
-      <c r="O3" s="316"/>
-      <c r="P3" s="316"/>
-      <c r="Q3" s="317"/>
+      <c r="B3" s="314"/>
+      <c r="C3" s="314"/>
+      <c r="D3" s="314"/>
+      <c r="E3" s="314"/>
+      <c r="F3" s="314"/>
+      <c r="G3" s="314"/>
+      <c r="H3" s="314"/>
+      <c r="I3" s="314"/>
+      <c r="J3" s="314"/>
+      <c r="K3" s="314"/>
+      <c r="L3" s="314"/>
+      <c r="M3" s="314"/>
+      <c r="N3" s="314"/>
+      <c r="O3" s="314"/>
+      <c r="P3" s="314"/>
+      <c r="Q3" s="315"/>
       <c r="S3" s="56"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -5946,47 +5946,47 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="74" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="318" t="s">
+      <c r="A4" s="316" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="320" t="s">
+      <c r="B4" s="318" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="309" t="s">
+      <c r="C4" s="320" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="309" t="s">
+      <c r="D4" s="320" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="309" t="s">
+      <c r="E4" s="320" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="309"/>
-      <c r="G4" s="309" t="s">
+      <c r="F4" s="320"/>
+      <c r="G4" s="320" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="309" t="s">
+      <c r="H4" s="320" t="s">
         <v>172</v>
       </c>
-      <c r="I4" s="309" t="s">
+      <c r="I4" s="320" t="s">
         <v>171</v>
       </c>
-      <c r="J4" s="309" t="s">
+      <c r="J4" s="320" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="309" t="s">
+      <c r="K4" s="320" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="309" t="s">
+      <c r="L4" s="320" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="309" t="s">
+      <c r="M4" s="320" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="309" t="s">
+      <c r="N4" s="320" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="311" t="s">
+      <c r="O4" s="309" t="s">
         <v>46</v>
       </c>
       <c r="P4" s="322" t="s">
@@ -6002,21 +6002,21 @@
       <c r="W4" s="76"/>
     </row>
     <row r="5" spans="1:24" s="74" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="319"/>
-      <c r="B5" s="321"/>
-      <c r="C5" s="310"/>
-      <c r="D5" s="310"/>
-      <c r="E5" s="310"/>
-      <c r="F5" s="310"/>
-      <c r="G5" s="310"/>
-      <c r="H5" s="310"/>
-      <c r="I5" s="310"/>
-      <c r="J5" s="310"/>
-      <c r="K5" s="310"/>
-      <c r="L5" s="310"/>
-      <c r="M5" s="310"/>
-      <c r="N5" s="310"/>
-      <c r="O5" s="312"/>
+      <c r="A5" s="317"/>
+      <c r="B5" s="319"/>
+      <c r="C5" s="321"/>
+      <c r="D5" s="321"/>
+      <c r="E5" s="321"/>
+      <c r="F5" s="321"/>
+      <c r="G5" s="321"/>
+      <c r="H5" s="321"/>
+      <c r="I5" s="321"/>
+      <c r="J5" s="321"/>
+      <c r="K5" s="321"/>
+      <c r="L5" s="321"/>
+      <c r="M5" s="321"/>
+      <c r="N5" s="321"/>
+      <c r="O5" s="310"/>
       <c r="P5" s="323"/>
       <c r="Q5" s="136" t="s">
         <v>47</v>
@@ -8948,8 +8948,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -8967,6 +8965,8 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -33316,8 +33316,8 @@
   </sheetPr>
   <dimension ref="A1:Y217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
